--- a/get170/TurmaC1_semNome.xlsx
+++ b/get170/TurmaC1_semNome.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t xml:space="preserve">Matrícula</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nota P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VR</t>
   </si>
   <si>
     <t xml:space="preserve">Nota Final</t>
@@ -445,7 +448,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -453,15 +456,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.5"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.4795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.25"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1022" min="8" style="1" width="10.0816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,13 +494,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>8.2</v>
@@ -520,17 +525,18 @@
         <f aca="false">IF(F2+G2&lt;=10,F2+G2,10)</f>
         <v>9.5</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="0"/>
+      <c r="J2" s="1" t="n">
         <f aca="false">ROUND((H2+E2)/2,2)</f>
         <v>9.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="n">
@@ -548,17 +554,18 @@
         <f aca="false">IF(F3+G3&lt;=10,F3+G3,10)</f>
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="0"/>
+      <c r="J3" s="1" t="n">
         <f aca="false">ROUND((H3+E3)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>10</v>
@@ -580,17 +587,18 @@
         <f aca="false">IF(F4+G4&lt;=10,F4+G4,10)</f>
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="0"/>
+      <c r="J4" s="1" t="n">
         <f aca="false">ROUND((H4+E4)/2,2)</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="n">
@@ -610,16 +618,18 @@
         <f aca="false">IF(F5+G5&lt;=10,F5+G5,10)</f>
         <v>9.5</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>6</v>
+      <c r="I5" s="0"/>
+      <c r="J5" s="1" t="n">
+        <f aca="false">ROUND((H5+E5)/2,2)</f>
+        <v>5.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>3.25</v>
@@ -641,17 +651,18 @@
         <f aca="false">IF(F6+G6&lt;=10,F6+G6,10)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="0"/>
+      <c r="J6" s="1" t="n">
         <f aca="false">ROUND((H6+E6)/2,2)</f>
         <v>6.63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>5.1</v>
@@ -671,17 +682,18 @@
         <f aca="false">IF(F7+G7&lt;=10,F7+G7,10)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="0"/>
+      <c r="J7" s="1" t="n">
         <f aca="false">ROUND((H7+E7)/2,2)</f>
         <v>4.55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="n">
@@ -699,17 +711,18 @@
         <f aca="false">IF(F8+G8&lt;=10,F8+G8,10)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="0"/>
+      <c r="J8" s="1" t="n">
         <f aca="false">ROUND((H8+E8)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>6.6</v>
@@ -731,17 +744,18 @@
         <f aca="false">IF(F9+G9&lt;=10,F9+G9,10)</f>
         <v>10</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="0"/>
+      <c r="J9" s="1" t="n">
         <f aca="false">ROUND((H9+E9)/2,2)</f>
         <v>9.3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1.95</v>
@@ -764,16 +778,19 @@
         <v>4.25</v>
       </c>
       <c r="I10" s="1" t="n">
-        <f aca="false">ROUND((H10+E10)/2,2)</f>
-        <v>4.1</v>
+        <v>6.5</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">ROUND((H10+I10)/2,2)</f>
+        <v>5.38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="n">
@@ -791,17 +808,18 @@
         <f aca="false">IF(F11+G11&lt;=10,F11+G11,10)</f>
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="0"/>
+      <c r="J11" s="1" t="n">
         <f aca="false">ROUND((H11+E11)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="n">
@@ -819,17 +837,18 @@
         <f aca="false">IF(F12+G12&lt;=10,F12+G12,10)</f>
         <v>2</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="0"/>
+      <c r="J12" s="1" t="n">
         <f aca="false">ROUND((H12+E12)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="n">
@@ -847,17 +866,18 @@
         <f aca="false">IF(F13+G13&lt;=10,F13+G13,10)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="0"/>
+      <c r="J13" s="1" t="n">
         <f aca="false">ROUND((H13+E13)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>7.7</v>
@@ -879,17 +899,18 @@
         <f aca="false">IF(F14+G14&lt;=10,F14+G14,10)</f>
         <v>8</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="0"/>
+      <c r="J14" s="1" t="n">
         <f aca="false">ROUND((H14+E14)/2,2)</f>
         <v>8.85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>7.9</v>
@@ -911,17 +932,18 @@
         <f aca="false">IF(F15+G15&lt;=10,F15+G15,10)</f>
         <v>5</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="0"/>
+      <c r="J15" s="1" t="n">
         <f aca="false">ROUND((H15+E15)/2,2)</f>
         <v>7.45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="n">
@@ -939,17 +961,18 @@
         <f aca="false">IF(F16+G16&lt;=10,F16+G16,10)</f>
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="0"/>
+      <c r="J16" s="1" t="n">
         <f aca="false">ROUND((H16+E16)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="n">
@@ -967,17 +990,18 @@
         <f aca="false">IF(F17+G17&lt;=10,F17+G17,10)</f>
         <v>2</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="0"/>
+      <c r="J17" s="1" t="n">
         <f aca="false">ROUND((H17+E17)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>6.9</v>
@@ -999,17 +1023,18 @@
         <f aca="false">IF(F18+G18&lt;=10,F18+G18,10)</f>
         <v>9.5</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="0"/>
+      <c r="J18" s="1" t="n">
         <f aca="false">ROUND((H18+E18)/2,2)</f>
         <v>9.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="1" t="n">
@@ -1027,17 +1052,18 @@
         <f aca="false">IF(F19+G19&lt;=10,F19+G19,10)</f>
         <v>2</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="0"/>
+      <c r="J19" s="1" t="n">
         <f aca="false">ROUND((H19+E19)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="n">
@@ -1055,17 +1081,18 @@
         <f aca="false">IF(F20+G20&lt;=10,F20+G20,10)</f>
         <v>2</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="0"/>
+      <c r="J20" s="1" t="n">
         <f aca="false">ROUND((H20+E20)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1" t="n">
@@ -1086,16 +1113,19 @@
         <v>10</v>
       </c>
       <c r="I21" s="1" t="n">
-        <f aca="false">ROUND((H21+E21)/2,2)</f>
-        <v>6</v>
+        <v>9.7</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">ROUND((H21+I21)/2,2)</f>
+        <v>9.85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>7.05</v>
@@ -1115,16 +1145,18 @@
         <f aca="false">IF(F22+G22&lt;=10,F22+G22,10)</f>
         <v>2</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>6</v>
+      <c r="I22" s="0"/>
+      <c r="J22" s="1" t="n">
+        <f aca="false">ROUND((H22+E22)/2,2)</f>
+        <v>5.53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>5.4</v>
@@ -1146,17 +1178,18 @@
         <f aca="false">IF(F23+G23&lt;=10,F23+G23,10)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="0"/>
+      <c r="J23" s="1" t="n">
         <f aca="false">ROUND((H23+E23)/2,2)</f>
         <v>8.7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="1" t="n">
@@ -1174,17 +1207,18 @@
         <f aca="false">IF(F24+G24&lt;=10,F24+G24,10)</f>
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="0"/>
+      <c r="J24" s="1" t="n">
         <f aca="false">ROUND((H24+E24)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="1" t="n">
@@ -1202,17 +1236,18 @@
         <f aca="false">IF(F25+G25&lt;=10,F25+G25,10)</f>
         <v>2</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="0"/>
+      <c r="J25" s="1" t="n">
         <f aca="false">ROUND((H25+E25)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>5.55</v>
@@ -1234,17 +1269,18 @@
         <f aca="false">IF(F26+G26&lt;=10,F26+G26,10)</f>
         <v>7.25</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="0"/>
+      <c r="J26" s="1" t="n">
         <f aca="false">ROUND((H26+E26)/2,2)</f>
         <v>7.4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>10</v>
@@ -1266,17 +1302,18 @@
         <f aca="false">IF(F27+G27&lt;=10,F27+G27,10)</f>
         <v>8</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="0"/>
+      <c r="J27" s="1" t="n">
         <f aca="false">ROUND((H27+E27)/2,2)</f>
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>2.25</v>
@@ -1298,17 +1335,18 @@
         <f aca="false">IF(F28+G28&lt;=10,F28+G28,10)</f>
         <v>3.5</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="0"/>
+      <c r="J28" s="1" t="n">
         <f aca="false">ROUND((H28+E28)/2,2)</f>
         <v>3.88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>9.7</v>
@@ -1330,17 +1368,18 @@
         <f aca="false">IF(F29+G29&lt;=10,F29+G29,10)</f>
         <v>8.25</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="0"/>
+      <c r="J29" s="1" t="n">
         <f aca="false">ROUND((H29+E29)/2,2)</f>
         <v>9.13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>2.4</v>
@@ -1360,17 +1399,18 @@
         <f aca="false">IF(F30+G30&lt;=10,F30+G30,10)</f>
         <v>2</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="0"/>
+      <c r="J30" s="1" t="n">
         <f aca="false">ROUND((H30+E30)/2,2)</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="1" t="n">
@@ -1388,17 +1428,18 @@
         <f aca="false">IF(F31+G31&lt;=10,F31+G31,10)</f>
         <v>2</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="0"/>
+      <c r="J31" s="1" t="n">
         <f aca="false">ROUND((H31+E31)/2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="1" t="n">
@@ -1419,16 +1460,19 @@
         <v>5.3</v>
       </c>
       <c r="I32" s="1" t="n">
-        <f aca="false">ROUND((H32+E32)/2,2)</f>
-        <v>3.65</v>
+        <v>9.6</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <f aca="false">ROUND((H32+I32)/2,2)</f>
+        <v>7.45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>10</v>
@@ -1450,13 +1494,13 @@
         <f aca="false">IF(F33+G33&lt;=10,F33+G33,10)</f>
         <v>10</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="J33" s="1" t="n">
         <f aca="false">ROUND((H33+E33)/2,2)</f>
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I33">
+  <conditionalFormatting sqref="J2:J33">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
